--- a/Winter_O_Compiled.xlsx
+++ b/Winter_O_Compiled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16127\Desktop\Analysis\olympic_medal_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17591074-234F-4DE6-BAFF-D872B25D66C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2097D50-4A2A-488F-8794-3D6B83500852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1575" windowWidth="29040" windowHeight="15840" xr2:uid="{FA74561A-E1B2-4AF6-9004-EB3970DFD049}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="111">
   <si>
     <t>Year</t>
   </si>
@@ -377,6 +377,12 @@
   <si>
     <t>NOC Codes</t>
   </si>
+  <si>
+    <t>EUN</t>
+  </si>
+  <si>
+    <t>YUG</t>
+  </si>
 </sst>
 </file>
 
@@ -2413,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC023CA-744B-4161-941D-9035B2D3A14E}">
   <dimension ref="A1:H328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5430,9 +5436,8 @@
       <c r="C113" t="s">
         <v>57</v>
       </c>
-      <c r="D113" t="e">
-        <f>VLOOKUP(C113,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D113" t="s">
+        <v>110</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -5885,9 +5890,8 @@
       <c r="C130" t="s">
         <v>59</v>
       </c>
-      <c r="D130" t="e">
-        <f>VLOOKUP(C130,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D130" t="s">
+        <v>110</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -6397,9 +6401,8 @@
       <c r="C149" t="s">
         <v>61</v>
       </c>
-      <c r="D149" t="e">
-        <f>VLOOKUP(C149,'[1]Current NOC'!$B:$C,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D149" t="s">
+        <v>109</v>
       </c>
       <c r="E149">
         <v>9</v>
